--- a/lib/files/courses.xlsx
+++ b/lib/files/courses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t xml:space="preserve">Arquitetura e Urbanismo</t>
   </si>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Licenciatura em Química Diurno</t>
   </si>
   <si>
-    <t xml:space="preserve">Engenharia Agrônoma</t>
+    <t xml:space="preserve">Agronomia</t>
   </si>
   <si>
     <t xml:space="preserve">Engenharia Cartográfica</t>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t xml:space="preserve">Engenharia Industrial Madeireira Noturno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pós-Graduação em Matemática Aplicada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFMAT(Verão)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +200,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -216,28 +225,145 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -245,8 +371,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,29 +411,153 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -301,10 +566,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -760,6 +1025,30 @@
       </c>
       <c r="B56" s="0" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/lib/files/courses.xlsx
+++ b/lib/files/courses.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Engenharia Industrial Madeireira Noturno</t>
   </si>
   <si>
-    <t xml:space="preserve">Pós-Graduação em Matemática Aplicada</t>
+    <t xml:space="preserve">PGMAT</t>
   </si>
   <si>
     <t xml:space="preserve">PROFMAT</t>
@@ -568,8 +568,8 @@
   </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1028,8 +1028,8 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>200</v>
+      <c r="A57" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>53</v>
@@ -1037,15 +1037,15 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>100</v>
+      <c r="A59" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>55</v>

--- a/lib/files/courses.xlsx
+++ b/lib/files/courses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t xml:space="preserve">Arquitetura e Urbanismo</t>
   </si>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Engenharia de Produção</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciências da Computação</t>
+    <t xml:space="preserve">Ciência da Computação</t>
   </si>
   <si>
     <t xml:space="preserve">Engenharia Industrial Madeireira Diurno</t>
@@ -150,7 +150,7 @@
     <t xml:space="preserve">Estudos sociais</t>
   </si>
   <si>
-    <t xml:space="preserve">educação Moral e Cívica</t>
+    <t xml:space="preserve">Educação Moral e Cívica</t>
   </si>
   <si>
     <t xml:space="preserve">Filosofia</t>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">PROFMAT(Verão)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honors</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,6 +1052,14 @@
       </c>
       <c r="B59" s="0" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/lib/files/courses.xlsx
+++ b/lib/files/courses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t xml:space="preserve">Arquitetura e Urbanismo</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t xml:space="preserve">Engenharia Industrial Madeireira Noturno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia Civil, Ciência da Computação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciatura em Química Noturno, Matemática Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física Noturno, Matemática Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matemática Diurno, Matemática Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matemática Industrial, Engenharia Industrial Madeireira Diurno</t>
   </si>
   <si>
     <t xml:space="preserve">PGMAT</t>
@@ -569,10 +584,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1032,7 +1047,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>53</v>
@@ -1040,7 +1055,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>54</v>
@@ -1048,7 +1063,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>55</v>
@@ -1056,12 +1071,71 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.236111111111111" bottom="0.236111111111111" header="0.511805555555555" footer="0.511805555555555"/>

--- a/lib/files/courses.xlsx
+++ b/lib/files/courses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t xml:space="preserve">Arquitetura e Urbanismo</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve">Matemática Industrial, Engenharia Industrial Madeireira Diurno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia Elétrica, Matemática Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciência da Computação, Informática Biomédica</t>
   </si>
   <si>
     <t xml:space="preserve">PGMAT</t>
@@ -586,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>58</v>
@@ -1111,15 +1117,15 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>60</v>
@@ -1127,10 +1133,26 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
